--- a/data/trans_dic/P18_5_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P18_5_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,0%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>9,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11,41%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>29,9%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>11,91%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>20,07%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>85,16%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>88,01%</t>
+          <t>28,24%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>15,95%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>16,04%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>14,9%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>11,99%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>13,37%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,6; 30,92</t>
+          <t>22,85; 32,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,76; 16,66</t>
+          <t>8,01; 16,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,0; 14,08</t>
+          <t>8,75; 13,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,69; 15,59</t>
+          <t>9,96; 16,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,3; 92,93</t>
+          <t>9,7; 15,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,91; 33,21</t>
+          <t>6,87; 11,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,7; 14,78</t>
+          <t>8,88; 14,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,44; 22,99</t>
+          <t>26,64; 33,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,55; 21,81</t>
+          <t>9,81; 14,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>82,44; 87,41</t>
+          <t>17,56; 23,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,83; 31,21</t>
+          <t>16,9; 22,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,41; 13,92</t>
+          <t>13,83; 20,4</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>13,93; 17,95</t>
+          <t>12,24; 17,43</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>14,07; 18,01</t>
+          <t>13,06; 18,08</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>86,13; 89,67</t>
+          <t>25,74; 30,97</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>9,58; 14,62</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>14,03; 18,03</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>14,15; 18,02</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>12,76; 17,17</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>10,47; 13,73</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>11,54; 15,13</t>
         </is>
       </c>
     </row>
@@ -855,12 +964,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -870,57 +979,87 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>87,1%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>12,89%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>30,32%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>12,4%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>18,08%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>80,13%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>18,45%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20,86%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>19,86%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>12,14%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>26,55%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>9,39%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>15,58%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>14,29%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>83,81%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>9,54%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>15,72%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>16,0%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>16,19%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>11,18%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,75; 27,11</t>
+          <t>18,93; 27,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 9,67</t>
+          <t>4,35; 10,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,95; 16,76</t>
+          <t>9,93; 16,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,76</t>
+          <t>8,01; 14,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,68; 91,19</t>
+          <t>8,22; 16,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,44; 34,43</t>
+          <t>9,05; 18,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,59; 16,05</t>
+          <t>6,76; 15,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,07; 21,58</t>
+          <t>26,25; 34,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,73; 21,44</t>
+          <t>9,45; 16,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>74,05; 85,73</t>
+          <t>15,25; 21,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,74; 29,44</t>
+          <t>15,37; 22,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 11,65</t>
+          <t>16,86; 26,33</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>13,44; 18,01</t>
+          <t>14,11; 27,16</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,16; 16,7</t>
+          <t>8,62; 17,83</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>79,69; 87,36</t>
+          <t>23,72; 29,49</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 11,96</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>13,64; 17,99</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>12,13; 17,06</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>13,27; 19,28</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>12,96; 20,26</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>8,32; 14,45</t>
         </is>
       </c>
     </row>
@@ -1025,70 +1194,100 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>11,7%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>29,6%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>12,97%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>15,42%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>16,16%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14,38%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13,26%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>21,99%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>10,81%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>14,72%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>22,0%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>15,27%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>16,45%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>12,47%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,01; 21,16</t>
+          <t>9,19; 20,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 17,3</t>
+          <t>4,2; 15,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,64; 20,44</t>
+          <t>9,42; 20,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,29; 30,76</t>
+          <t>11,83; 32,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>5,72; 20,3</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>22,97; 36,61</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 20,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,6; 22,1</t>
+          <t>22,91; 36,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,64; 20,58</t>
+          <t>7,64; 18,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>11,05; 22,76</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9,87; 20,61</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7,54; 21,59</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>17,18; 26,72</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>7,37; 16,46</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>10,54; 18,79</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>11,77; 22,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>17,19; 26,82</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,49; 14,51</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>11,51; 19,46</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>12,28; 24,12</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>8,11; 17,8</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>9,95%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>30,03%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>12,22%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>18,78%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>84,08%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>18,47%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18,13%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15,92%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>26,84%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>10,52%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>15,69%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>15,29%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>87,05%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>10,69%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>15,78%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>15,51%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>12,95%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>12,86%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,91; 26,34</t>
+          <t>20,84; 26,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 11,41</t>
+          <t>7,12; 12,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,57; 14,5</t>
+          <t>10,7; 14,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 14,86</t>
+          <t>10,53; 14,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,74; 91,88</t>
+          <t>9,88; 14,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,89; 32,44</t>
+          <t>7,95; 12,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,46; 14,16</t>
+          <t>9,2; 13,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,67; 20,59</t>
+          <t>27,8; 32,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 20,13</t>
+          <t>10,45; 13,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>81,57; 86,22</t>
+          <t>17,25; 21,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,23; 28,86</t>
+          <t>16,47; 20,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,09; 11,98</t>
+          <t>15,99; 20,85</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>14,38; 17,17</t>
+          <t>13,73; 18,44</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 16,71</t>
+          <t>12,51; 17,13</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>85,55; 88,64</t>
+          <t>25,19; 28,81</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>9,28; 12,48</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>14,45; 17,35</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>14,19; 17,22</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>13,41; 17,09</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>11,49; 14,56</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>11,4; 14,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,6%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>428616</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>186412</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>183461</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>201685</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>201272</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20349</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25773</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>531403</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>215055</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>366020</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>350384</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>307841</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>35065</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>35945</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>401467</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>549481</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>552069</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>509113</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>55414</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>61719</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>370832; 522410</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>130680; 276404</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>142931; 227093</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>162987; 265833</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>157313; 255415</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15521; 25830</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20066; 32352</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>473447; 589294</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>175830; 261015</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>318065; 419543</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>305112; 403588</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>248038; 365841</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>28923; 41172</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>30774; 42607</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>875141; 1052835</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>328273; 500670</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>483452; 621252</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>487085; 620202</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>435967; 586474</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>48410; 63486</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>53251; 69843</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>313670</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>92765</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>179559</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>146487</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>154527</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9320</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7490</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>424274</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>168602</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>249533</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>252797</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>285335</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12863</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8124</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>737944</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>261367</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>429092</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>399284</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>439863</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>22183</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>15614</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>261310; 381972</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>58998; 138234</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>136026; 226525</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>109701; 192007</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>113623; 223947</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6539; 13012</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4920; 11160</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>367398; 482903</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>130557; 224469</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>207342; 296499</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>210500; 310915</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>230648; 360190</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>9137; 17590</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5767; 11935</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>659298; 819621</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>204001; 327415</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>372261; 491186</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>332480; 467492</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>364842; 530166</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>17765; 27768</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>11622; 20183</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>58039</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>33879</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>60242</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>77143</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>49090</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>120672</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>50644</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>65903</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>58984</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>54251</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>178711</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>84524</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>126145</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>136127</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>103340</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>37197; 83870</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17560; 65023</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>39426; 85226</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>49408; 133757</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>24011; 85184</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>93388; 150380</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31350; 76560</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>45077; 92826</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>40494; 84521</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>30847; 88349</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>139669; 217902</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>53756; 120163</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>95091; 160838</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>101638; 199639</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>67199; 147534</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>469.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>766.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>480.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>469.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>345.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>800325</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>313056</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>423262</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>425315</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>404889</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>29669</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33264</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1076349</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>434302</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>681457</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>662165</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>647427</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>47928</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>44069</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1876674</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>747358</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1104718</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1087480</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1052316</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>77597</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>77333</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>710247; 903646</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>242673; 415360</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>366283; 498677</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>360623; 511902</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>338287; 496134</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>23711; 36566</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>27477; 39810</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>996543; 1167041</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>374672; 500575</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>617480; 757834</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>590612; 735228</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>570754; 744438</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>41340; 55497</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>37855; 51852</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1760986; 2014450</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>648512; 872594</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1011818; 1214639</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>994663; 1207262</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>937839; 1195517</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>68868; 87242</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>68562; 87888</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
